--- a/data/data_source/woori_faq.xlsx
+++ b/data/data_source/woori_faq.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB75A00-762D-4C99-9A5D-0F1BE6FD1808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A443E85-6E3B-4137-8E50-F726D68DA775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="29020" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="0" windowWidth="20235" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,11 +92,6 @@
 	</t>
   </si>
   <si>
-    <t xml:space="preserve">		
-			1) 이용매체가 인터넷뱅킹인 경우· 주 이용경로(① 또는 ②)① 개인뱅킹 로그인→ 아이디로그인 영역 內 [아이디조회] 메뉴 클릭② 홈페이지→ 전체메뉴→ 기타서비스→ 고객광장→ 개인회원서비스→ 아이디/이용자비밀번호→ 아이디조회· 조회방법 : 아래 ① 또는 ② 방법으로 확인할 수 있습니다.① 보안수단으로 확인 : 생년월일, 보안매체 일련번호(*), 계좌번호, 계좌비밀번호 입력(*) OTP발생기인 경우, 1회용 인증번호가 아닌 OTP 기기 뒷면의 일련번호를 입력바랍니다.(*) 디지털OTP를 이용하시는 고객님은 ②SMS로 확인 방법으로 이용바랍니다.② SMS로 확인 : 생년월일, 계좌번호, 계좌비밀번호, 휴대폰번호, 휴대폰인증번호 입력2) 이용매체가 스마트뱅킹(우리WON뱅킹 앱)인 경우· 주 이용경로 : 아이디로그인 화면 → [아이디·비밀번호를 잊으셨나요?] 메뉴 클릭· 조회방법 : 휴대폰본인확인(성명, 생년월일, 휴대폰번호, 인증번호 입력) 및 계좌비밀번호 인증 후 확인 할 수 있습니다.※ 만약, 본인명의 휴대폰이 아닌 경우 '휴대폰 본인인증' 화면 하단의 '본인명의 휴대폰이 없으신가요?' 클릭 후 생년월일, 계좌번호, 계좌비밀번호, 휴대폰번호, 휴대폰인증번호를 입력하시면 됩니다.3) 인터넷/스마트뱅킹에서 입력된 정보가 모두 일치하면 ID조회결과 화면에 ID가 표기됩니다.우리WON뱅킹 앱에서 본인명의 휴대폰으로 인증하는 경우에는 'ID 전체' 확인이 가능하며, 그 외 방법으로 진행시에는 ID의2, 4번째 자리는 "*"로 마스킹 처리되어 보여집니다. 마스킹 처리된 부분을 알 수 없는 경우, 예금주께서 실명확인증표(주민등록증 등)을 지참하고 가까운 우리은행에 방문하셔서 확인해 주시기 바랍니다.
-	</t>
-  </si>
-  <si>
     <t>미성년자가 인터넷/스마트뱅킹 신규가입하려면 어떻게 해야되나요??</t>
   </si>
   <si>
@@ -209,9 +204,6 @@
 	</t>
   </si>
   <si>
-    <t>인터넷뱅킹에서 직원이용자 등록은 어떻게 하나요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">		
 			마스터ID는 인터넷/스마트뱅킹 직원이용자관리 메뉴에서 여러 명의 직원ID를 등록하고 업무권한 등을 설정할 수 있습니다.▶ 기업인터넷뱅킹 이용 경로 안내 : 기업인터넷뱅킹 로그인 → 뱅킹관리 → 직원이용자관리 → 직원이용자 신규(일괄)등록▶ 우리WON기업 이용 경로 안내 : 우리WON기업 앱 로그인→ 전체메뉴→ 관리→ 직원이용자관리→ 신규등록※ 직접출금에 대한 권한을 부여받은 조작자/결재자인 경우 직접 출금(이체) 시 직원이용자의 OTP발생기와 우리인증서가 필요합니다.※ 직원ID를 등록한 마스터ID는 결재업무만 가능하므로, 직접 업무를 조작하려면 인터넷/스마트뱅킹에서 '마스터업무권한설정'이 필요합니다.
 	</t>
@@ -326,9 +318,6 @@
 	</t>
   </si>
   <si>
-    <t>PC에 저장된 공동(공인)인증서를 스마트폰으로 복사하는 방법은?</t>
-  </si>
-  <si>
     <t xml:space="preserve">		
 			인증서 복사는 PC와 스마트폰 이용이 가능한 상태에서 할 수 있으며, 무선데이타(WIFI, 5G 등)망을 이용하므로 케이블은 연결하지 않습니다.▶ PC에서 스마트폰으로 인증서 복사① PC에서 우리은행 홈페이지 접속 후 개인(기업)인증센터로 접속합니다.② 스마트폰공동인증서 복사→ 안드로이드/아이폰OS 인증서복사→ [ PC → 스마트기기 보내기(인증번호) ] 로 선택합니다.※ 스마트폰 인증서 복사는 'keysharp certrelay' 보안프로그램이 필요하므로, 화면 연결시 보안프로그램 설치 안내창이 나오면 설치하여 주시기 바랍니다.③ [ PC → 스마트기기 보내기 ]를 선택하고, 인증서 선택창이 나오면, 복사할 인증서를 선택 후 인증서 비밀번호를 입력합니다.④ 스마트폰 : 우리WON뱅킹→ 三(우측상단 전체메뉴) → 인증/보안→ 인증→ 공동인증서→ PC에서 가져오기※ 기업인 경우 : 우리WON기업→ 전체메뉴→ 인증/보안→ 공동인증센터→ 인증서복사→ PC에서 가져오기⑤ 스마트폰 화면에 표기된 인증번호 12자리를 컴퓨터 인증번호 입력란에 정확하게 입력합니다.⑥ PC에서는 인증서를 내보내고, 스마트폰에서 가져오기를 완료하면 됩니다.※ 참고'PC→스마트폰으로 복사' 외에도 '스마트폰→PC로 복사', '스마트폰→스마트폰으로 복사'도 가능합니다.
 	</t>
@@ -350,14 +339,6 @@
 	</t>
   </si>
   <si>
-    <t>다른은행에서 발급받은 공동인증서를 우리은행에서 이용할 수 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		
-			다른은행에서 발급받은 공동(공인)인증서는 우리은행 인터넷/스마트뱅킹에서 타기관인증서 등록 후 이용하실 수 있습니다.우리은행 인터넷/스마트뱅킹 가입고객(보안매체 및 출금계좌를 등록한 이체고객)에 한하여 인증서를 등록할 수 있습니다.타기관인증서 등록시 공동(공인)인증서는 PC 등 저장매체에 저장되어 있어야 합니다. (저장매체에 인증서가 없다면, 최초 발급은행에서 인증서 재발급이 필요합니다.)▶ 타기관 공동인증서 등록 (택)① PC : 우리은행 홈페이지→ 개인(기업)인증센터→ 공동인증서(구 공동인증서)→ 타기관공동인증서등록/해제② 스마트폰· 개인 : 우리WON뱅킹→ 전체메뉴→ 인증/보안→ 인증→ 공동인증서→ 다른 기관 인증서 등록/해제· 기업 : 우리WON기업→ 전체메뉴→ 인증/보안→공동인증센터→ 다른기관 인증서 등록/해제※ 이용하려는 앱에 등록하려는 인증서가 안보이는 경우 '인증서 복사' 후 이용 바랍니다.
-	</t>
-  </si>
-  <si>
     <t>다른 은행에서 금융인증서를 발급 받은 경우, 우리은행에서 금융인증서 이용하려면 어떻게 해야 하나요?</t>
   </si>
   <si>
@@ -366,14 +347,6 @@
 	</t>
   </si>
   <si>
-    <t>금융인증서란 무엇인가요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		
-			금융인증서는 전자서명법 개정(2020.12.10)에 따라 기존 공동인증서의 불편함(유효기간, 복사, 복잡한비밀번호 등)을 개선한 인증서입니다.공동인증서의 복잡한 비밀번호(10자리 이상 특수문자포함 등)는 [PIN(6자리 비밀번호)]으로 편리하게 변경되었고, 유효기간은 3년으로 매년 갱신하는 불편함이 개선되었으며, 채널간 인증서복사(핸드폰→PC)는 클라우드에 저장하여 언제 어디서나 다운받아 사용할 수 있게 변경되었습니다.▶ 금융인증서 : 전 은행 공동으로 도입하는 서비스로, 금융결제원에서 발급하며 인증서의 클라우드 저장과 PIN인증을 기본으로 합니다.▶ 금융인증서(우리WON뱅킹) : 금융인증서의 특징을 바탕으로 패턴/생체를 추가하고 금액별 인증방법을 차등하여 편리성을 강조하였습니다.금융인증서 가입 고객은 인터넷뱅킹 및 다른 기관에서는 금융인증서 PIN을 이용할 수 있고, 우리WON뱅킹 앱에서는 PIN 외에도 패턴, 생체를 이용하여 좀 더 편리하게 이용할 수 있습니다.▶ 금융인증서 발급 경로 : 우리은행 홈페이지(비로그인) → 개인인증센터→ 금융인증서 → 발급/재발급▶ 금융인증서(우리WON뱅킹) 발급 경로 : 우리WON뱅킹(비로그인)→ 三(우측상단 전체메뉴)→ 인증/보안 → 인증→ 금융인증서 → 인증서 발급/사용등록※ 우리WON뱅킹에서 발급시에는 본인명의 휴대폰이고 당행에 등록된 휴대폰번호가 동일해야 합니다.※ 다른 기관에서 발급받은 금융인증서가 있는 경우에는 '다른기관 인증서 등록' 후 우리은행에서 이용할 수 있습니다. 
-	</t>
-  </si>
-  <si>
     <t>공동(공인)인증서 발급에 실패했으나, 인증서 수수료는 출금되었습니다. 수수료 환급 절차는 어떻게 되나요?</t>
   </si>
   <si>
@@ -527,14 +500,6 @@
     <t>예금</t>
   </si>
   <si>
-    <t>공동명의로 통장을 만들 수 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		
-			공동명의로 통장개설은 가능합니다.공동명의 전원이 방문하여 개설하며, 통장 예금주는 대표 1인의 명의로 개설됩니다.(전원의 신분증과 통장에 사용할 도장준비)지급시는 공동명의 전원의 기명날인이 있어야 하며, 공동명의 예금주 각자가 분할 또는 단독으로는 찾으실 수 없습니다.
-	</t>
-  </si>
-  <si>
     <t>개인 계좌 비밀번호가 5회 오류 되었는데 은행 방문없이 오류를 해제하는 방법이 있나요?</t>
   </si>
   <si>
@@ -575,9 +540,6 @@
 	</t>
   </si>
   <si>
-    <t>법인 통장 비밀번호가 5회 오류 시 처리방법은?</t>
-  </si>
-  <si>
     <t xml:space="preserve">		
 			영업점 방문하여 통장 비밀번호 5회 오류해제 및 새로운 비밀번호 설정 후 이용가능합니다.- 대표자 방문 : 사업자등록증, 법인등기사항전부증명서(말소사항 포함), 대표자 신분증, 통장, 거래인감 (서명가능)- 대리인 방문 : 사업자등록증, 법인등기사항전부증명서(말소사항 포함), 법인인감증명서, 위임장(법인인감 날인), 대리인 신분증, 통장, 거래인감※ 법인인감증명서, 법인등기사항전부증명서 유효기간은 발급일로 부터 3개월입니다.※ 법인등기사항증명서 등 관련서류는 대표자의 성명, 주민등록번호가 전부 표기 된것으로 준비하시면 됩니다.(마스킹 해제)※ 고객확인제도(KYC) 재이행 주기 도래 시 실제소유자 확인 필수(지분등을 확인할 수 있는 주주명부 등 준비)※ 상기 서류 외 거래 상황에 따라 다를 수 있으니 추가 내용은 영업점 또는 고객센터(1588/1599-5000)로 문의바랍니다.
 	</t>
@@ -647,9 +609,6 @@
 	</t>
   </si>
   <si>
-    <t>전화 예 · 적금 신규 서비스란?</t>
-  </si>
-  <si>
     <t xml:space="preserve">		
 			영업점 방문없이 상담직원을 통해 예·적금 상품가입(만기재예치 포함) 가능한 서비스 입니다.[이용대상]- 우리은행 입출금이 자유로운 통장을 보유한, 본인명의 휴대폰을 이용하는 개인고객(평일 09시~18시)[대상상품]- 거치식 예금 : 우리SUPER 정기예금, 시니어플러스우리예금, WON플러스 예금(기본형)- 적립식 예금 : 스무살 우리 적금, 우리 SUPER 주거래적금, WON 적금, 첫급여 우리적금, 우리사랑 정기적금, 우리자유적금- 청약 상품 : 주택청약종합저축(청년 주택드림 청약통장 제외)※ 인증절차 등이 불가한 일부 고객은 본 서비스 이용이 제한될 수 있습니다.※ 자세한 사항은 가까운 우리은행 영업점 또는 고객센터 (☎ 1588-5000)로 문의하시기 바랍니다.
 	</t>
@@ -722,9 +681,6 @@
 	</t>
   </si>
   <si>
-    <t>청약상품 명의변경 가능한가요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">		
 			- 청약예금, 청약부금, 주택청약종합저축 : 가입자가 사망한 경우 그 상속인 명의로 변경가능- 청약저축 : 가입자가 사망 / 혼인한 경우 그 상속인 명의로 변경가능가입자의 배우자 또는 세대원인 직계존·비속으로 세대주가 변경된 경우로 그 변경된 세대주 명의로 변경가능※ 청약저축/청약부금/청약예금 상품은 판매중단(2015.9.1) 되었으나 청약자격은 유지됩니다.
 	</t>
@@ -738,9 +694,6 @@
 	</t>
   </si>
   <si>
-    <t>청약종합저축의 1순위 발생 요건은?</t>
-  </si>
-  <si>
     <t xml:space="preserve">		
 			청약종합저축의 순위발생 기준은 청약지역 및 주택의 종류(국민 / 민영주택)에 따라 다릅니다.[국민주택에 청약 하는 경우]입주자모집공고일 기준으로 가입기간 및 납입인정회차 충족① 청약과열지역, 투기과열지구 : 가입 후 24개월 경과 및 납입인정회차 24회차 이상② 위축지역 : 가입 후 1개월 경과 및 납입인정회차 1회차 이상①, ② 제외 수도권 : 가입 후 12개월 경과 및 납입인정회차 12회차 이상 (단, 시·도지사가 24개월/24회차 범위내 변경가능)①, ② 제외 수도권 외 : 가입 후 6개월 경과 및 납입인정회차 6회차 이상 (단, 시·도지사가 12개월/12회차 범위내 변경가능)※ 청약저축 또는 청약종합저축 보유자만 청약가능※ 2순위 : 1순위에 해당되지 아니한 자※ 납입인정금액은 회차별 입금금액 중 최대 10만원 까지만 인정※ 연체인 경우 회차에 대한 납입인정이 지연되어 순위발생이 늦어질수 있음[민영주택에 청약 하는 경우]입주자모집공고일 현재 잔액이 신청하려는 면적의 지역별 청약예치 기준금액 이상이고, 아래 가입기간 충족① 청약과열지역, 투기과열지구 : 가입 후 24개월 경과② 위축지역 : 가입 후 1개월 경과①, ② 제외 수도권 : 가입 후 12개월 경과 (단, 시·도지사가 24개월 범위내 변경 가능)①, ② 제외 수도권 외 : 가입 후 6개월 경과 (단, 시·도지사가 12개월 범위내 변경 가능)※ 청약예금, 청약부금 또는 청약종합저축 보유자만 청약가능※ 2순위 : 1순위에 해당되지 아니한 자※ 투기과열지구 및 청약과열지역에서 공급되는 주택유형별 청약제한사항 별도 확인 필요
 	</t>
@@ -851,9 +804,6 @@
 	</t>
   </si>
   <si>
-    <t>개명 후 은행에 따로 신고하는 건가요?</t>
-  </si>
-  <si>
     <t xml:space="preserve">		
 			예금주 본인이 영업점 방문 후 개명에 의한 명의변경을 해야합니다.[명의변경 준비서류]- 개명 전, 후 확인되는 주민등록초본 (또는 기본증명서 상세)- 개명 후 발급된 주민등록증 (또는 유효기간 내 주민등록증 발급신청 확인서)- 통장 및 도장 (서명가능)- 개명에 의한 명의변경 수수료 없음※ 발급일로부터 3개월 이내, 성명 및 주민등록번호 13자리 모두 기재 필수
 	</t>
@@ -875,22 +825,9 @@
 	</t>
   </si>
   <si>
-    <t>휴면계좌인 통장을 다시 사용할 수 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		
-			휴면계좌는 소멸시효가 완성된 예금으로 재사용 불가합니다.[휴면계좌 잔액 환급방법]- 인터넷뱅킹 : 로그인 - 조회 - 휴면계좌조회 - 선택계좌 환급- WON뱅킹 : 로그인 - 전체메뉴 - 금융거래 - 계좌조회/관리 - 계좌조회 - 휴면계좌 조회 - 즉시신청- 영업점 : 100만원을 초과하는 계좌 등 인터넷으로 환급이 불가능한 경우는 본인 영업점 환급 받으시기 바랍니다.※ 전국은행연합회의 '휴면계좌 통합조회 시스템'(www.휴면계좌.kr) 을 이용하시면 은행, 보험사, 우체국 등 다른 금융사의 휴면계좌를 조회하실 수 있습니다.
-	</t>
-  </si>
-  <si>
     <t>우리은행 거래실적에 대한 우대서비스가 있나요?</t>
   </si>
   <si>
-    <t xml:space="preserve">		
-			우리은행을 거래하시는 개인 고객님의 거래실적을 종합적으로 점수화하여 점수별 등급을 부여하고, 등급에 따라 우대서비스를 제공하는「우리가족 우대서비스」가 있습니다.- 거래실적은 우리은행 상품실적과 주거래실적(급여, 자동이체등)을 합산하여 점수를 산정하고, 점수에 따라 Prestige, Honor, Royal, Family 등급으로 분류됩니다.- 등급산정은 매년 1월~3월, 4월~6월, 7월~9월, 10월~12월의 실적으로 점수를 산정하여 다음 다음달 1일인 5월1일, 8월1일, 11월1일, 2월1일에 등급을 선정합니다.- 우대서비스 적용기간은 선정일로부터 3개월간 제공해드립니다.- 서비스 내용은 등급별 수수료 차등 면제, 환율우대, 신용카드연회비 면제 등 혜택이 적용됩니다.
-	</t>
-  </si>
-  <si>
     <t>예금자보호되는 금액은 얼마인가요?</t>
   </si>
   <si>
@@ -899,22 +836,9 @@
 	</t>
   </si>
   <si>
-    <t>상속예금 지급 시 필요서류는?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		
-			상속인이 사망자 예금에 대한 지급 또는 명의변경을 신청하는 경우 필요서류는 다음과 같습니다. 1. 내점한 상속인의 실명확인증표- 상속인 본인 여부 확인2. 피상속인의 가족관계증명서(상세)- 상속인의 범위 확인 : 피상속인의 기준 부모, 배우자, 자녀(상속 1, 2순위)까지 확인 가능3. 피상속인의 기본증명서- 피상속인의 사망사실 및 시기확인4. 미내점 상속인의 위임장 및 인감증명서 등- 미내점 상속인의 의사확인 : 내점 상속인의 경우 본인의사 확인이 가능하므로 인감증명서 등 제출 생략* 위임장에는 인감증명서와 일치하는 인감날인 또는 본인서명사실확인서와 일치하는 서명 기재* 인감증명서(3개월 이내 발급분) 또는 본인서명사실확인서(3개월 이내 발급분) 등5. [필요시] 피상속인의 제적등본- 추가 상속인 유무 및 2008년 이전 사망자의 상속인 범위 확인* 아래의 경우 제출① 청구인이 3, 4순위 상속인의 경우② 대습상속 등으로 가족관계증명서에 상속인 전원이 나타나지 않는 경우③ 사망자가 2008년 이전 사망하여 가족관계증명서 발급이 불가능한 경우 등6. [필요시] 피상속인 사망확인(진단)서- 피상속인의 사망사실 및 시기확인 : 사망신고일로부터 얼마 되지 않아 기본증명서에 사망사실 및 사망일이 기재되지 아니한 경우※ 피상속인의 상속예금 총액(원금기준)이 3백만원 이하의 소액인 경우 상속인 중 1인의 요청으로 상속지급 신청 가능합니다.(위임 불가)※ 상속예금 총액이 소액이라 할지라도 상속인 간 분쟁이 예상되거나 상속인 전원의 동의가 필수인 상품의 경우 상속 지급이 거절될 수 있습니다. ※ 자세한 내용은 가까운 우리은행 영업점 또는 고객센터(☎1588-5000)으로 문의하여 주시기 바랍니다.
-	</t>
-  </si>
-  <si>
     <t>예금자보호가 안되는 상품은 뭔가요?</t>
   </si>
   <si>
-    <t xml:space="preserve">		
-			[보호대상예금]- 요구불예금 : 보통예금, 저축예금, 기업자유예금, 별단예금, 당좌예금 등- 저축성예금 : 정기예금, 저축예금, 청약예금 등- 적립식예금 : 정기적금, 청약부금, 상호부금 등- 연금저축신탁, 개인연금신탁, 퇴직신탁 등 원본보전형신탁- 표지어음, 외화예금 등[비보호대상예금]- 양도성예금증서(CD), 환매조건부채권(RP), 은행발행채권(후순위채권 등)- 특정금전신탁 등 실적배당형신탁- 집합투자상품(수익증권, 뮤추얼펀드, MMF 등)- 주택청약저축, 주택청약종합저축 등※ 주택청약저축, 주택청약종합저축으로 조성된 자금은 정부의 주택도시기금으로 입금됩니다.따라서 기금의 주체는 정부이고, 정부가 직접 관리하므로 예금자보호법 대상과 별개입니다.
-	</t>
-  </si>
-  <si>
     <t>대출</t>
   </si>
   <si>
@@ -922,11 +846,6 @@
   </si>
   <si>
     <t>신용대출 만기가 다가오는데 연장은 어떻게 신청 할 수 있나요?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		
-			대출의 기간연장은 만기일로부터 1개월 전부터 신청이 가능합니다.개인대출의 경우 자동연장(녹취에 의한 전화 연장)이 가능하며, 자동연장 대상인 경우 고객센터 자동연장팀에서 대출만기 7일~10일 전에 고객님께 연락을 드려 연장의사 확인 후 진행해 드리고 있습니다.단, 자동연장 제외상품(예: 기업대출, 외화대출, 전세자금대출 등), 연락불가, 녹취거절, 영업점 연장 희망 고객 등은 유선연장이 불가하므로 필요한 서류를 지참하여 영업점 방문하여 신청해야 하며, 인터넷/우리WON뱅킹에서 실행한 대출(군인공제회 회원대출 제외)은 인터넷/우리WON뱅킹에서 연장 가능합니다.유선연장, 인터넷/우리WON뱅킹 연장을 제외한 일반대출 연장은 대출만기 1개월 이내에 대출관리지점 또는 고객센터로 문의해 주시면 연장관련 안내를 받으실 수 있습니다.
-	</t>
   </si>
   <si>
     <t>대출신청 진행 중에 사용 가능한 보안카드가 없다고 진행이 안됩니다. 어떻게 해야하나요?</t>
@@ -3201,11 +3120,6 @@
   </si>
   <si>
     <t xml:space="preserve">		
-			아래 사항에 해당하는 경우 상계(예금을 해지하여 대출금 상환) 가능합니다.▶ 대상 : 본인명의 예금담보대출로서 담보예금과 대출이 1:1인 경우 단, 인터넷으로 즉시해지 가능한 예금만 인터넷으로 상계처리 가능(일부 상품은 상계처리 불가) ▶ 경로 ① 인터넷뱅킹 → 대출 → 원금상환/한도해지 → 담보예금해지/대출상환 → 즉시해지② 우리WON뱅킹 → 전체메뉴 → 금융거래 → 대출 → 담보예금해지/대출상환
-	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		
 			인터넷상에서 직접 해외송금은 불가하며, 인터넷으로 신청하면 영업점에서 서류 검토 후 처리 됩니다.▶대상 : 국내 법인고객 및 개인사업자    (인터넷뱅킹에 가입하고, 거래 영업점 또는 인터넷뱅킹을 통해 "인터넷 기업해외송금신청 약정"을 등록한  고객)  ▶이용시간 :  평일 가능 (토.일.공휴일 불가)- 평일 09:00~17:00 신청시 → 영업점에서 당일 처리     ☞16:30~17:00 에 신청한  해외송금은  다음 영업일에 해외로 전문 발송되오니 유의하세요.  - 평일 17:00~22:00 신청시 → 원화계좌에서 출금시에는 다음영업일 처리 /  외화계좌에서 출금시에는 미처리건만 다음 영업일 처리▶이용가능계좌- 원화예금 : 입출금이 자유로운 보통, 저축, 기업자유, 당좌예금 - 외화예금 : 입출금이 자유로운 외화보통예금, 외화당좌예금※ 인터넷 해외송금 신청시 해당 송금에 대한 증빙서류를 첨부하시거나, 해당 송금에 대한 증빙서류(원본)을 신청 당일 거래영업점에 제출하셔야 해외송금이 정상처리 됩니다
 	</t>
   </si>
@@ -3246,6 +3160,134 @@
 			B2B채권으로 입금된 내역은 인터넷/스마트뱅킹에서 조회하실 수 있습니다.
 ▶ 인터넷뱅킹 이용 경로 안내 : 기업인터넷뱅킹 로그인→ 전자결제→ 판매기업→ B2B대출(협력)→ 조회→ 납품대금조회▶ 우리WON기업 이용 경로 안내 : 우리WON기업 앱 로그인→ 전체메뉴→ 뱅킹→ 전자결제→ B2B대출(협력)→ 채권조회및대출신청
 	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷뱅킹에서 직원이용자 등록은 어떻게 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		
+			1) 이용매체가 인터넷뱅킹인 경우· 주 이용경로(① 또는 ②)① 개인뱅킹 로그인→ 아이디로그인 영역 內 [아이디조회] 메뉴 클릭② 홈페이지→ 전체메뉴→ 기타서비스→ 고객광장→ 개인회원서비스→ 아이디/이용자비밀번호→ 아이디조회· 조회방법 : 아래 ① 또는 ② 방법으로 확인할 수 있습니다.① 보안수단으로 확인 : 생년월일, 보안매체 일련번호(*), 계좌번호, 계좌비밀번호 입력(*) OTP발생기인 경우, 1회용 인증번호가 아닌 OTP 기기 뒷면의 일련번호를 입력바랍니다.(*) 디지털OTP를 이용하시는 고객님은 ②SMS로 확인 방법으로 이용바랍니다.② SMS로 확인 : 생년월일, 계좌번호, 계좌비밀번호, 휴대폰번호, 휴대폰인증번호 입력2) 이용매체가 스마트뱅킹(우리WON뱅킹 앱)인 경우· 주 이용경로 : 아이디로그인 화면 → [아이디·비밀번호를 잊으셨나요?] 메뉴 클릭· 조회방법 : 휴대폰본인확인(성명, 생년월일, 휴대폰번호, 인증번호 입력) 및 계좌비밀번호 인증 후 확인 할 수 있습니다.※ 만약, 본인명의 휴대폰이 아닌 경우 '휴대폰 본인인증' 화면 하단의 '본인명의 휴대폰이 없으신가요?' 클릭 후 생년월일, 계좌번호, 계좌비밀번호, 휴대폰번호, 휴대폰인증번호를 입력하시면 됩니다.3) 인터넷/스마트뱅킹에서 입력된 정보가 모두 일치하면 ID조회결과 화면에 ID가 표기됩니다.우리WON뱅킹 앱에서 본인명의 휴대폰으로 인증하는 경우에는 'ID 전체' 확인이 가능하며, 그 외 방법으로 진행시에는 ID의2, 4번째 자리는 "*"로 마스킹 처리되어 보여집니다. 마스킹 처리된 부분을 알 수 없는 경우, 예금주께서 실명확인증표(주민등록증 등)을 지참하고 가까운 우리은행에 방문하셔서 확인해 주시기 바랍니다.
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융인증서란 무엇인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금융인증서는 전자서명법 개정(2020.12.10)에 따라 기존 공동인증서의 불편함(유효기간, 복사, 복잡한비밀번호 등)을 개선한 인증서입니다. 공동인증서의 복잡한 비밀번호(10자리 이상 특수문자포함 등)는 [PIN(6자리 비밀번호)]으로 편리하게 변경되었고, 유효기간은 3년으로 매년 갱신하는 불편함이 개선되었으며, 채널간 인증서복사(핸드폰→PC)는 클라우드에 저장하여 언제 어디서나 다운받아 사용할 수 있게 변경되었습니다. 
+▶ 금융인증서 : 전 은행 공동으로 도입하는 서비스로, 금융결제원에서 발급하며 인증서의 클라우드 저장과 PIN인증을 기본으로 합니다. 
+▶ 금융인증서(우리WON뱅킹) : 금융인증서의 특징을 바탕으로 패턴/생체를 추가하고 금액별 인증방법을 차등하여 편리성을 강조하였습니다.금융인증서 가입 고객은 인터넷뱅킹 및 다른 기관에서는 금융인증서 PIN을 이용할 수 있고, 우리WON뱅킹 앱에서는 PIN 외에도 패턴, 생체를 이용하여 좀 더 편리하게 이용할 수 있습니다.
+▶ 금융인증서 발급 경로 : 우리은행 홈페이지(비로그인) → 개인인증센터→ 금융인증서 → 발급/재발급
+▶ 금융인증서(우리WON뱅킹) 발급 경로 : 우리WON뱅킹(비로그인)→ 三(우측상단 전체메뉴)→ 인증/보안 → 인증→ 금융인증서 → 인증서 발급/사용등록
+※ 우리WON뱅킹에서 발급시에는 본인명의 휴대폰이고 당행에 등록된 휴대폰번호가 동일해야 합니다.
+※ 다른 기관에서 발급받은 금융인증서가 있는 경우에는 '다른기관 인증서 등록' 후 우리은행에서 이용할 수 있습니다.  		 	 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른은행에서 발급받은 공동인증서를 우리은행에서 이용할 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른은행에서 발급받은 공동(공인)인증서는 우리은행 인터넷/스마트뱅킹에서 타기관인증서 등록 후 이용하실 수 있습니다.우리은행 인터넷/스마트뱅킹 가입고객(보안매체 및 출금계좌를 등록한 이체고객)에 한하여 인증서를 등록할 수 있습니다.타기관인증서 등록시 공동(공인)인증서는 PC 등 저장매체에 저장되어 있어야 합니다. (저장매체에 인증서가 없다면, 최초 발급은행에서 인증서 재발급이 필요합니다.) 
+▶ 타기관 공동인증서 등록 (택)
+① PC : 우리은행 홈페이지→ 개인(기업)인증센터→ 공동인증서(구 공동인증서)→ 타기관공동인증서등록/해제
+② 스마트폰· 개인 : 우리WON뱅킹→ 전체메뉴→ 인증/보안→ 인증→ 공동인증서→ 다른 기관 인증서 등록/해제
+· 기업 : 우리WON기업→ 전체메뉴→ 인증/보안→공동인증센터→ 다른기관 인증서 등록/해제
+※ 이용하려는 앱에 등록하려는 인증서가 안보이는 경우 '인증서 복사' 후 이용 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC에 저장된 공동(공인)인증서를 스마트폰으로 복사하는 방법은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동명의로 통장을 만들 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동명의로 통장개설은 가능합니다.공동명의 전원이 방문하여 개설하며, 통장 예금주는 대표 1인의 명의로 개설됩니다.(전원의 신분증과 통장에 사용할 도장준비)지급시는 공동명의 전원의 기명날인이 있어야 하며, 공동명의 예금주 각자가 분할 또는 단독으로는 찾으실 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인 통장 비밀번호가 5회 오류 시 처리방법은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청약상품 명의변경 가능한가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화 예 · 적금 신규 서비스란?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청약종합저축의 1순위 발생 요건은?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개명 후 은행에 따로 신고하는 건가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상속예금 지급 시 필요서류는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">휴면계좌는 소멸시효가 완성된 예금으로 재사용 불가합니다.[휴면계좌 잔액 환급방법]- 인터넷뱅킹 : 로그인 - 조회 - 휴면계좌조회 - 선택계좌 환급- WON뱅킹 : 로그인 - 전체메뉴 - 금융거래 - 계좌조회/관리 - 계좌조회 - 휴면계좌 조회 - 즉시신청- 영업점 : 100만원을 초과하는 계좌 등 인터넷으로 환급이 불가능한 경우는 본인 영업점 환급 받으시기 바랍니다.※ 전국은행연합회의 '휴면계좌 통합조회 시스템'(www.휴면계좌.kr) 을 이용하시면 은행, 보험사, 우체국 등 다른 금융사의 휴면계좌를 조회하실 수 있습니다.
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		
+			우리은행을 거래하시는 개인 고객님의 거래실적을 종합적으로 점수화하여 점수별 등급을 부여하고, 등급에 따라 우대서비스를 제공하는「우리가족 우대서비스」가 있습니다.- 거래실적은 우리은행 상품실적과 주거래실적(급여, 자동이체등)을 합산하여 점수를 산정하고, 점수에 따라 Prestige, Honor, Royal, Family 등급으로 분류됩니다.- 등급산정은 매년 1월~3월, 4월~6월, 7월~9월, 10월~12월의 실적으로 점수를 산정하여 다음 다음달 1일인 5월1일, 8월1일, 11월1일, 2월1일에 등급을 선정합니다.- 우대서비스 적용기간은 선정일로부터 3개월간 제공해드립니다.- 서비스 내용은 등급별 수수료 차등 면제, 환율우대, 신용카드연회비 면제 등 혜택이 적용됩니다.
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴면계좌인 통장을 다시 사용할 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		
+			아래 사항에 해당하는 경우 상계(예금을 해지하여 대출금 상환) 가능합니다.▶ 대상 : 본인명의 예금담보대출로서 담보예금과 대출이 1:1인 경우 단, 인터넷으로 즉시해지 가능한 예금만 인터넷으로 상계처리 가능(일부 상품은 상계처리 불가) ▶ 경로 ① 인터넷뱅킹 → 대출 → 원금상환/한도해지 → 담보예금해지/대출상환 → 즉시해지② 우리WON뱅킹 → 전체메뉴 → 금융거래 → 대출 → 담보예금해지/대출상환
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"상속인이 사망자 예금에 대한 지급 또는 명의변경을 신청하는 경우 필요서류는 다음과 같습니다. 
+1. 내점한 상속인의 실명확인증표
+    - 상속인 본인 여부 확인
+2. 피상속인의 가족관계증명서(상세)
+    - 상속인의 범위 확인 : 피상속인의 기준 부모, 배우자, 자녀(상속 1, 2순위)까지 확인 가능
+3. 피상속인의 기본증명서
+- 피상속인의 사망사실 및 시기확인
+4. 미내점 상속인의 위임장 및 인감증명서 등
+- 미내점 상속인의 의사확인 : 내점 상속인의 경우 본인의사 확인이 가능하므로 인감증명서 등 제출 생략* 위임장에는 인감증명서와 일치하는 인감날인 또는 본인서명사실확인서와 일치하는 서명 기재* 인감증명서(3개월 이내 발급분) 또는 본인서명사실확인서(3개월 이내 발급분) 등
+5. [필요시] 피상속인의 제적등본
+- 추가 상속인 유무 및 2008년 이전 사망자의 상속인 범위 확인* 아래의 경우 제출
+    ① 청구인이 3, 4순위 상속인의 경우
+    ② 대습상속 등으로 가족관계증명서에 상속인 전원이 나타나지 않는 경우
+    ③ 사망자가 2008년 이전 사망하여 가족관계증명서 발급이 불가능한 경우 등6. [필요시] 피상속인 사망확인(진단)서
+- 피상속인의 사망사실 및 시기확인 : 사망신고일로부터 얼마 되지 않아 기본증명서에 사망사실 및 사망일이 기재되지 아니한 경우
+※ 피상속인의 상속예금 총액(원금기준)이 3백만원 이하의 소액인 경우 상속인 중 1인의 요청으로 상속지급 신청 가능합니다.(위임 불가)
+※ 상속예금 총액이 소액이라 할지라도 상속인 간 분쟁이 예상되거나 상속인 전원의 동의가 필수인 상품의 경우 상속 지급이 거절될 수 있습니다. 
+※ 자세한 내용은 가까운 우리은행 영업점 또는 고객센터(☎1588-5000)으로 문의하여 주시기 바랍니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		
+			[보호대상예금]- 요구불예금 : 보통예금, 저축예금, 기업자유예금, 별단예금, 당좌예금 등- 저축성예금 : 정기예금, 저축예금, 청약예금 등- 적립식예금 : 정기적금, 청약부금, 상호부금 등- 연금저축신탁, 개인연금신탁, 퇴직신탁 등 원본보전형신탁- 표지어음, 외화예금 등[비보호대상예금]- 양도성예금증서(CD), 환매조건부채권(RP), 은행발행채권(후순위채권 등)- 특정금전신탁 등 실적배당형신탁- 집합투자상품(수익증권, 뮤추얼펀드, MMF 등)- 주택청약저축, 주택청약종합저축 등※ 주택청약저축, 주택청약종합저축으로 조성된 자금은 정부의 주택도시기금으로 입금됩니다.따라서 기금의 주체는 정부이고, 정부가 직접 관리하므로 예금자보호법 대상과 별개입니다.
+	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대출의 기간연장은 만기일로부터 1개월 전부터 신청이 가능합니다.
+개인대출의 경우 자동연장(녹취에 의한 전화 연장)이 가능하며, 자동연장 대상인 경우 고객센터 자동연장팀에서 대출만기 7일~10일 전에 고객님께 연락을 드려 연장의사 확인 후 진행해 드리고 있습니다.
+단, 자동연장 제외상품(예: 기업대출, 외화대출, 전세자금대출 등), 연락불가, 녹취거절, 영업점 연장 희망 고객 등은 유선연장이 불가하므로 필요한 서류를 지참하여 영업점 방문하여 신청해야 하며, 인터넷/우리WON뱅킹에서 실행한 대출(군인공제회 회원대출 제외)은 인터넷/우리WON뱅킹에서 연장 가능합니다.
+유선연장, 인터넷/우리WON뱅킹 연장을 제외한 일반대출 연장은 대출만기 1개월 이내에 대출관리지점 또는 고객센터로 문의해 주시면 연장관련 안내를 받으실 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3295,7 +3337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3304,8 +3346,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3589,37 +3637,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="39.75" customWidth="1"/>
-    <col min="4" max="4" width="75.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="98" customWidth="1"/>
+    <col min="4" max="4" width="75.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="98" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>755</v>
+        <v>732</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3627,8 +3677,8 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>756</v>
+      <c r="D2" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -3636,7 +3686,7 @@
     </row>
     <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -3644,16 +3694,16 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>757</v>
+      <c r="D3" s="5" t="s">
+        <v>736</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -3661,8 +3711,8 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>758</v>
+      <c r="D4" s="5" t="s">
+        <v>737</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -3670,7 +3720,7 @@
     </row>
     <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -3678,8 +3728,8 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>759</v>
+      <c r="D5" s="5" t="s">
+        <v>738</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -3687,7 +3737,7 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -3695,8 +3745,8 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>760</v>
+      <c r="D6" s="5" t="s">
+        <v>739</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -3704,7 +3754,7 @@
     </row>
     <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -3712,8 +3762,8 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>761</v>
+      <c r="D7" s="5" t="s">
+        <v>740</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -3721,7 +3771,7 @@
     </row>
     <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -3729,8 +3779,8 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>762</v>
+      <c r="D8" s="5" t="s">
+        <v>741</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -3738,7 +3788,7 @@
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -3746,16 +3796,16 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>764</v>
+      <c r="D9" s="5" t="s">
+        <v>743</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -3763,8 +3813,8 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>766</v>
+      <c r="D10" s="5" t="s">
+        <v>745</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3772,7 +3822,7 @@
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -3780,7 +3830,7 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3789,7 +3839,7 @@
     </row>
     <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -3797,7 +3847,7 @@
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3806,7 +3856,7 @@
     </row>
     <row r="13" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -3814,8 +3864,8 @@
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>767</v>
+      <c r="D13" s="5" t="s">
+        <v>746</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -3823,7 +3873,7 @@
     </row>
     <row r="14" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -3831,7 +3881,7 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3840,7 +3890,7 @@
     </row>
     <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -3848,16 +3898,16 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>768</v>
+      <c r="D15" s="5" t="s">
+        <v>747</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -3865,16 +3915,16 @@
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -3882,16 +3932,16 @@
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -3899,16 +3949,16 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -3916,16 +3966,16 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -3933,16 +3983,16 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -3950,16 +4000,16 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -3967,16 +4017,16 @@
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -3984,16 +4034,16 @@
       <c r="C23" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -4001,16 +4051,16 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -4018,16 +4068,16 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -4035,16 +4085,16 @@
       <c r="C26" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>769</v>
+      <c r="D26" s="5" t="s">
+        <v>748</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -4052,16 +4102,16 @@
       <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>770</v>
+      <c r="D27" s="5" t="s">
+        <v>749</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -4069,16 +4119,16 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -4086,5774 +4136,5774 @@
       <c r="C29" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>760</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>778</v>
+        <v>41</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>756</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>779</v>
+        <v>41</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>780</v>
+        <v>41</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>758</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>766</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>764</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>81</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>85</v>
+        <v>763</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>94</v>
+        <v>63</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>102</v>
+        <v>63</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>104</v>
+        <v>63</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>767</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>126</v>
+        <v>768</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C75" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>769</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>153</v>
+        <v>117</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>771</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>159</v>
+        <v>117</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>180</v>
+        <v>152</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>186</v>
+        <v>152</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>207</v>
+        <v>114</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>773</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>209</v>
+        <v>114</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>211</v>
+        <v>114</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>213</v>
+        <v>114</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>777</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>214</v>
+        <v>775</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>121</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>215</v>
+        <v>114</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>216</v>
+        <v>776</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>217</v>
+        <v>114</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>121</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>774</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>220</v>
+        <v>779</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>221</v>
+        <v>114</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>222</v>
+        <v>780</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B119" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>226</v>
+        <v>781</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>730</v>
+      </c>
+      <c r="B121" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="B121" t="s">
-        <v>223</v>
-      </c>
-      <c r="C121" t="s">
-        <v>229</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>229</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>231</v>
+        <v>208</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B123" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>229</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>241</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B128" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C128" t="s">
-        <v>241</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>241</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>248</v>
+        <v>220</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
-        <v>241</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>250</v>
+        <v>220</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>252</v>
+        <v>114</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B133" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>121</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>254</v>
+        <v>114</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B134" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
-        <v>121</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>256</v>
+        <v>114</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B135" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
-        <v>121</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>258</v>
+        <v>114</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>121</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>260</v>
+        <v>114</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>121</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>262</v>
+        <v>114</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C138" t="s">
-        <v>121</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>264</v>
+        <v>114</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B139" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
-        <v>121</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>266</v>
+        <v>114</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B140" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
-        <v>121</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>268</v>
+        <v>114</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B141" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
-        <v>121</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>270</v>
+        <v>114</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C142" t="s">
-        <v>273</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B143" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C143" t="s">
-        <v>273</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>276</v>
+        <v>252</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B144" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C144" t="s">
-        <v>273</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B145" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C145" t="s">
-        <v>273</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B146" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C146" t="s">
-        <v>273</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>282</v>
+        <v>252</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B147" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>284</v>
+        <v>252</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B148" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C148" t="s">
-        <v>273</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B149" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C149" t="s">
-        <v>273</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C150" t="s">
-        <v>273</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B151" t="s">
+        <v>251</v>
+      </c>
+      <c r="C151" t="s">
+        <v>252</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C151" t="s">
-        <v>273</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C152" t="s">
+        <v>252</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E152" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C153" t="s">
-        <v>273</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>296</v>
+        <v>252</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C154" t="s">
-        <v>273</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>298</v>
+        <v>252</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C155" t="s">
-        <v>300</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C156" t="s">
-        <v>300</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C157" t="s">
-        <v>300</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B158" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C158" t="s">
-        <v>300</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>307</v>
+        <v>279</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C159" t="s">
-        <v>300</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C160" t="s">
-        <v>300</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>311</v>
+        <v>279</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C161" t="s">
-        <v>300</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C162" t="s">
-        <v>300</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C163" t="s">
-        <v>300</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>317</v>
+        <v>279</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C164" t="s">
-        <v>300</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>319</v>
+        <v>279</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C165" t="s">
+        <v>279</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E165" s="1" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C166" t="s">
-        <v>300</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>323</v>
+        <v>279</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C167" t="s">
-        <v>300</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C168" t="s">
-        <v>300</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>326</v>
+        <v>279</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C169" t="s">
-        <v>328</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C170" t="s">
-        <v>328</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>331</v>
+        <v>307</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
-        <v>328</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C172" t="s">
-        <v>328</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C173" t="s">
-        <v>328</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>337</v>
+        <v>307</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C174" t="s">
-        <v>328</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>339</v>
+        <v>307</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C175" t="s">
-        <v>328</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B176" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C176" t="s">
-        <v>344</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>345</v>
+        <v>323</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B177" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C177" t="s">
-        <v>344</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B178" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C178" t="s">
-        <v>344</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C179" t="s">
-        <v>344</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>351</v>
+        <v>323</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B180" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C180" t="s">
-        <v>344</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>353</v>
+        <v>323</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B181" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C181" t="s">
-        <v>344</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>355</v>
+        <v>323</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B182" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C182" t="s">
-        <v>344</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B183" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C183" t="s">
-        <v>344</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>359</v>
+        <v>323</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B184" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C184" t="s">
-        <v>361</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>362</v>
+        <v>340</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B185" t="s">
+        <v>322</v>
+      </c>
+      <c r="C185" t="s">
+        <v>340</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C185" t="s">
-        <v>361</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E185" s="1" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B186" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C186" t="s">
-        <v>361</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>366</v>
+        <v>340</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B187" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C187" t="s">
-        <v>361</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>368</v>
+        <v>340</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B188" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C188" t="s">
-        <v>361</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>370</v>
+        <v>340</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B189" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C189" t="s">
-        <v>361</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>372</v>
+        <v>340</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B190" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C190" t="s">
-        <v>361</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B191" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C191" t="s">
-        <v>376</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B192" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C192" t="s">
-        <v>376</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>379</v>
+        <v>355</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B193" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C193" t="s">
-        <v>376</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>381</v>
+        <v>355</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B194" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C194" t="s">
-        <v>376</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>383</v>
+        <v>355</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B195" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C195" t="s">
-        <v>376</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>385</v>
+        <v>355</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B196" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C196" t="s">
-        <v>376</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>387</v>
+        <v>355</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>366</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B197" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C197" t="s">
-        <v>389</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>390</v>
+        <v>368</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B198" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C198" t="s">
-        <v>389</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>392</v>
+        <v>368</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B199" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C199" t="s">
-        <v>389</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B200" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C200" t="s">
-        <v>396</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>397</v>
+        <v>375</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B201" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C201" t="s">
-        <v>396</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>399</v>
+        <v>375</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>378</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B202" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C202" t="s">
-        <v>396</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>401</v>
+        <v>375</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>380</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B203" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C203" t="s">
-        <v>396</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>403</v>
+        <v>375</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B204" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C204" t="s">
-        <v>396</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>405</v>
+        <v>375</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>384</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B205" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C205" t="s">
-        <v>396</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>407</v>
+        <v>375</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B206" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C206" t="s">
-        <v>396</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>409</v>
+        <v>375</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B207" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C207" t="s">
-        <v>396</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>411</v>
+        <v>375</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B208" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C208" t="s">
-        <v>396</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>413</v>
+        <v>375</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B209" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C209" t="s">
-        <v>396</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>415</v>
+        <v>375</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B210" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C210" t="s">
+        <v>375</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B211" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C211" t="s">
-        <v>396</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>419</v>
+        <v>375</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>398</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B212" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C212" t="s">
-        <v>396</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>421</v>
+        <v>375</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B213" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C213" t="s">
-        <v>396</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>423</v>
+        <v>375</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B214" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C214" t="s">
-        <v>396</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>425</v>
+        <v>375</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B215" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C215" t="s">
-        <v>396</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>427</v>
+        <v>375</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B216" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C216" t="s">
-        <v>396</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>429</v>
+        <v>375</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B217" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C217" t="s">
-        <v>396</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>403</v>
+        <v>375</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B218" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C218" t="s">
-        <v>396</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>431</v>
+        <v>375</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B219" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C219" t="s">
-        <v>396</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>433</v>
+        <v>375</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>412</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B220" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C220" t="s">
-        <v>396</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>435</v>
+        <v>375</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>414</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B221" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C221" t="s">
-        <v>396</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>437</v>
+        <v>375</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C222" t="s">
-        <v>439</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>440</v>
+        <v>418</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B223" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C223" t="s">
-        <v>439</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>442</v>
+        <v>418</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B224" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C224" t="s">
-        <v>439</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B225" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C225" t="s">
-        <v>439</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>446</v>
+        <v>418</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B226" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C226" t="s">
-        <v>449</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>450</v>
+        <v>428</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B227" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C227" t="s">
-        <v>449</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>452</v>
+        <v>428</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B228" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C228" t="s">
-        <v>449</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B229" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C229" t="s">
-        <v>449</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>456</v>
+        <v>428</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>435</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B230" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C230" t="s">
-        <v>458</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>459</v>
+        <v>437</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B231" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C231" t="s">
-        <v>458</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>461</v>
+        <v>437</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B232" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C232" t="s">
-        <v>462</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>463</v>
+        <v>441</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>442</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B233" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C233" t="s">
-        <v>465</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>466</v>
+        <v>444</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B234" t="s">
+        <v>427</v>
+      </c>
+      <c r="C234" t="s">
+        <v>444</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="C234" t="s">
-        <v>465</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B235" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C235" t="s">
-        <v>465</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>470</v>
+        <v>444</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B236" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C236" t="s">
-        <v>121</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>472</v>
+        <v>114</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B237" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C237" t="s">
-        <v>121</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>474</v>
+        <v>114</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B238" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C238" t="s">
-        <v>121</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>476</v>
+        <v>114</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B239" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="C239" t="s">
-        <v>121</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>478</v>
+        <v>114</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B240" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C240" t="s">
-        <v>480</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>460</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B241" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C241" t="s">
-        <v>480</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>483</v>
+        <v>459</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B242" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C242" t="s">
-        <v>480</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>485</v>
+        <v>459</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B243" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C243" t="s">
-        <v>480</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>487</v>
+        <v>459</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>466</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B244" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C244" t="s">
-        <v>480</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>489</v>
+        <v>459</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B245" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C245" t="s">
-        <v>492</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>493</v>
+        <v>471</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B246" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C246" t="s">
-        <v>492</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>495</v>
+        <v>471</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B247" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C247" t="s">
-        <v>492</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>497</v>
+        <v>471</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>476</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B248" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C248" t="s">
-        <v>492</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>499</v>
+        <v>471</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B249" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C249" t="s">
-        <v>492</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>501</v>
+        <v>471</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B250" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C250" t="s">
-        <v>503</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>504</v>
+        <v>482</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B251" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C251" t="s">
-        <v>503</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>506</v>
+        <v>482</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B252" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C252" t="s">
-        <v>503</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>508</v>
+        <v>482</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B253" t="s">
+        <v>470</v>
+      </c>
+      <c r="C253" t="s">
+        <v>489</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C253" t="s">
-        <v>510</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B254" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C254" t="s">
-        <v>510</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>513</v>
+        <v>489</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B255" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C255" t="s">
-        <v>510</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>515</v>
+        <v>489</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B256" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C256" t="s">
-        <v>510</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>517</v>
+        <v>489</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B257" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C257" t="s">
-        <v>510</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>519</v>
+        <v>489</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>498</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B258" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C258" t="s">
-        <v>510</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>521</v>
+        <v>489</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B259" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C259" t="s">
-        <v>510</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>523</v>
+        <v>489</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B260" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C260" t="s">
-        <v>525</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>526</v>
+        <v>504</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B261" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C261" t="s">
-        <v>525</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>528</v>
+        <v>504</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>507</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B262" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C262" t="s">
-        <v>525</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>530</v>
+        <v>504</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B263" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C263" t="s">
-        <v>525</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>532</v>
+        <v>504</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B264" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C264" t="s">
-        <v>525</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>534</v>
+        <v>504</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B265" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C265" t="s">
-        <v>525</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>536</v>
+        <v>504</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>515</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B266" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C266" t="s">
-        <v>525</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>538</v>
+        <v>504</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>517</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B267" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C267" t="s">
-        <v>121</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>540</v>
+        <v>114</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B268" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C268" t="s">
-        <v>121</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>542</v>
+        <v>114</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B269" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C269" t="s">
-        <v>121</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>544</v>
+        <v>114</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B270" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="C270" t="s">
-        <v>121</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>546</v>
+        <v>114</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B271" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C271" t="s">
-        <v>549</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>550</v>
+        <v>528</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B272" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C272" t="s">
-        <v>549</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>552</v>
+        <v>528</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B273" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C273" t="s">
-        <v>549</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>554</v>
+        <v>528</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B274" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C274" t="s">
-        <v>549</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>556</v>
+        <v>528</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B275" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C275" t="s">
-        <v>549</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>558</v>
+        <v>528</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B276" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C276" t="s">
-        <v>549</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>560</v>
+        <v>528</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B277" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C277" t="s">
-        <v>549</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>562</v>
+        <v>528</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B278" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C278" t="s">
-        <v>163</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>564</v>
+        <v>152</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B279" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C279" t="s">
-        <v>163</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>566</v>
+        <v>152</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>545</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B280" t="s">
+        <v>527</v>
+      </c>
+      <c r="C280" t="s">
+        <v>152</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C280" t="s">
-        <v>163</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B281" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C281" t="s">
-        <v>163</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>570</v>
+        <v>152</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B282" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C282" t="s">
-        <v>163</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>572</v>
+        <v>152</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B283" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C283" t="s">
-        <v>163</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>574</v>
+        <v>152</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B284" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C284" t="s">
-        <v>163</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>576</v>
+        <v>152</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B285" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C285" t="s">
-        <v>163</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>578</v>
+        <v>152</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B286" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C286" t="s">
-        <v>163</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>580</v>
+        <v>152</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>559</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B287" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C287" t="s">
-        <v>163</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>582</v>
+        <v>152</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>561</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B288" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C288" t="s">
-        <v>223</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>584</v>
+        <v>203</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>563</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B289" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C289" t="s">
-        <v>223</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>586</v>
+        <v>203</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B290" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C290" t="s">
-        <v>223</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>588</v>
+        <v>203</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B291" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C291" t="s">
-        <v>223</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>590</v>
+        <v>203</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B292" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C292" t="s">
-        <v>223</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>592</v>
+        <v>203</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>571</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B293" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C293" t="s">
-        <v>223</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>594</v>
+        <v>203</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B294" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C294" t="s">
-        <v>343</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>596</v>
+        <v>322</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>575</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B295" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C295" t="s">
-        <v>343</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>598</v>
+        <v>322</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B296" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C296" t="s">
-        <v>343</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>600</v>
+        <v>322</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>579</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B297" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C297" t="s">
-        <v>343</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>392</v>
+        <v>322</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B298" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C298" t="s">
-        <v>121</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>603</v>
+        <v>114</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>582</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B299" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C299" t="s">
-        <v>121</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>605</v>
+        <v>114</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>584</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B300" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C300" t="s">
-        <v>121</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>607</v>
+        <v>114</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>586</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B301" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C301" t="s">
-        <v>610</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>611</v>
+        <v>589</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B302" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C302" t="s">
-        <v>610</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>613</v>
+        <v>589</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>592</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B303" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C303" t="s">
-        <v>610</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>615</v>
+        <v>589</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>594</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B304" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C304" t="s">
-        <v>610</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>617</v>
+        <v>589</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B305" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C305" t="s">
-        <v>610</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>619</v>
+        <v>589</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B306" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C306" t="s">
-        <v>610</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>621</v>
+        <v>589</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B307" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C307" t="s">
-        <v>623</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>624</v>
+        <v>602</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>603</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B308" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C308" t="s">
-        <v>623</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B309" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C309" t="s">
-        <v>623</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>628</v>
+        <v>602</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B310" t="s">
+        <v>588</v>
+      </c>
+      <c r="C310" t="s">
+        <v>602</v>
+      </c>
+      <c r="D310" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="C310" t="s">
-        <v>623</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="E310" s="1" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B311" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C311" t="s">
-        <v>623</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>632</v>
+        <v>602</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B312" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C312" t="s">
-        <v>623</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>634</v>
+        <v>602</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B313" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C313" t="s">
-        <v>623</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>636</v>
+        <v>602</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B314" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C314" t="s">
-        <v>623</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>638</v>
+        <v>602</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B315" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C315" t="s">
-        <v>465</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>640</v>
+        <v>444</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B316" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C316" t="s">
-        <v>465</v>
-      </c>
-      <c r="D316" s="4" t="s">
-        <v>642</v>
+        <v>444</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>621</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B317" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C317" t="s">
-        <v>465</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>644</v>
+        <v>444</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>623</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B318" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C318" t="s">
-        <v>465</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>646</v>
+        <v>444</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>625</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B319" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C319" t="s">
-        <v>648</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>649</v>
+        <v>627</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B320" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C320" t="s">
-        <v>648</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>651</v>
+        <v>627</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>630</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B321" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C321" t="s">
-        <v>648</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>653</v>
+        <v>627</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>632</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B322" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C322" t="s">
-        <v>648</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>655</v>
+        <v>627</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B323" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C323" t="s">
-        <v>648</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>657</v>
+        <v>627</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B324" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C324" t="s">
-        <v>648</v>
-      </c>
-      <c r="D324" s="4" t="s">
-        <v>659</v>
+        <v>627</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>638</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B325" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C325" t="s">
-        <v>648</v>
-      </c>
-      <c r="D325" s="4" t="s">
-        <v>661</v>
+        <v>627</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B326" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C326" t="s">
-        <v>663</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>664</v>
+        <v>642</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>643</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B327" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C327" t="s">
-        <v>663</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>666</v>
+        <v>642</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>645</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B328" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C328" t="s">
-        <v>663</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>668</v>
+        <v>642</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>647</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B329" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C329" t="s">
-        <v>663</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>670</v>
+        <v>642</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>649</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B330" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C330" t="s">
-        <v>663</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>672</v>
+        <v>642</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>651</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B331" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C331" t="s">
-        <v>663</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>674</v>
+        <v>642</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B332" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C332" t="s">
-        <v>663</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>676</v>
+        <v>642</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>655</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B333" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C333" t="s">
-        <v>663</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>678</v>
+        <v>642</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>657</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B334" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C334" t="s">
-        <v>663</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>680</v>
+        <v>642</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>659</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B335" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C335" t="s">
-        <v>663</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>682</v>
+        <v>642</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>661</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B336" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C336" t="s">
+        <v>642</v>
+      </c>
+      <c r="D336" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="E336" s="1" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B337" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C337" t="s">
-        <v>663</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>686</v>
+        <v>642</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>665</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B338" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C338" t="s">
-        <v>663</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>688</v>
+        <v>642</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B339" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C339" t="s">
-        <v>663</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>690</v>
+        <v>642</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>669</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B340" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C340" t="s">
-        <v>663</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>692</v>
+        <v>642</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>671</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B341" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C341" t="s">
-        <v>663</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>694</v>
+        <v>642</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>673</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B342" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C342" t="s">
-        <v>663</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>696</v>
+        <v>642</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>675</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B343" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C343" t="s">
-        <v>663</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>698</v>
+        <v>642</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B344" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C344" t="s">
-        <v>663</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>700</v>
+        <v>642</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>679</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B345" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C345" t="s">
-        <v>663</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>702</v>
+        <v>642</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>681</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B346" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C346" t="s">
-        <v>663</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>704</v>
+        <v>642</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>683</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B347" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C347" t="s">
-        <v>663</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>706</v>
+        <v>642</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B348" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C348" t="s">
-        <v>663</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>708</v>
+        <v>642</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>687</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B349" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C349" t="s">
-        <v>663</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>710</v>
+        <v>642</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>689</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B350" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C350" t="s">
-        <v>121</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>712</v>
+        <v>114</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>691</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B351" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C351" t="s">
-        <v>121</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>714</v>
+        <v>114</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B352" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C352" t="s">
-        <v>121</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>715</v>
+        <v>114</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>694</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B353" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C353" t="s">
-        <v>121</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>717</v>
+        <v>114</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B354" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C354" t="s">
-        <v>121</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>719</v>
+        <v>114</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B355" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C355" t="s">
-        <v>121</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>721</v>
+        <v>114</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B356" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C356" t="s">
-        <v>723</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>724</v>
+        <v>702</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B357" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C357" t="s">
-        <v>723</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>726</v>
+        <v>702</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B358" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C358" t="s">
-        <v>723</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>728</v>
+        <v>702</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B359" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C359" t="s">
-        <v>723</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>730</v>
+        <v>702</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>709</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B360" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C360" t="s">
-        <v>723</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>732</v>
+        <v>702</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>711</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B361" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C361" t="s">
-        <v>121</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>734</v>
+        <v>114</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B362" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C362" t="s">
-        <v>121</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>736</v>
+        <v>114</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>715</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B363" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C363" t="s">
-        <v>121</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>738</v>
+        <v>114</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>717</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B364" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C364" t="s">
-        <v>121</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>740</v>
+        <v>114</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>719</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B365" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C365" t="s">
-        <v>121</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>742</v>
+        <v>114</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>721</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B366" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C366" t="s">
-        <v>121</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>744</v>
+        <v>114</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B367" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C367" t="s">
-        <v>121</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>746</v>
+        <v>114</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>725</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="B368" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C368" t="s">
-        <v>121</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>748</v>
+        <v>114</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>727</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
